--- a/src/main/resources/templates/excel/TemplateHCI.xlsx
+++ b/src/main/resources/templates/excel/TemplateHCI.xlsx
@@ -7,129 +7,10 @@
     <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TigerSnus" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="___xlnm.Database">"#REF!"</definedName>
-    <definedName name="___xlnm.Database_1">"#REF!"</definedName>
-    <definedName name="___xlnm.Database_2">"#REF!"</definedName>
-    <definedName name="___xlnm.Database_3">"#REF!"</definedName>
-    <definedName name="___xlnm.Print_Titles">NA()</definedName>
-    <definedName name="__xlnm.Database">"#REF!"</definedName>
-    <definedName name="__xlnm.Database_1">"#REF!"</definedName>
-    <definedName name="__xlnm.Database_2">"#REF!"</definedName>
-    <definedName name="__xlnm.Database_3">"#REF!"</definedName>
-    <definedName name="__xlnm.Print_Titles">NA()</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$AS$125</definedName>
-    <definedName name="a">"'file://Deden/my documents/04 SALARY HK FUJI BIJAK PRESTASI/SALARY TAHUN 2002/03.OP.NSK/NSK MEI 2002.xls'#$resume.$#REF!$#REF!"</definedName>
-    <definedName name="a_4" localSheetId="0">#REF!</definedName>
-    <definedName name="a_4">#REF!</definedName>
-    <definedName name="a_4_1">NA()</definedName>
-    <definedName name="a_4_2">NA()</definedName>
-    <definedName name="a_4_3">NA()</definedName>
-    <definedName name="aa" localSheetId="0">#REF!</definedName>
-    <definedName name="aa">#REF!</definedName>
-    <definedName name="Absensi" localSheetId="0">#REF!</definedName>
-    <definedName name="Absensi">#REF!</definedName>
-    <definedName name="asli02" localSheetId="0">#REF!</definedName>
-    <definedName name="asli02">#REF!</definedName>
-    <definedName name="ASLI08">#REF!</definedName>
-    <definedName name="ASLI1">#REF!</definedName>
-    <definedName name="ASLI3">#REF!</definedName>
-    <definedName name="ASSKEMATIAN">#N/A</definedName>
-    <definedName name="ASTEK_AB">#N/A</definedName>
-    <definedName name="ASTEK_CR">#N/A</definedName>
-    <definedName name="ASTEK_DB">#N/A</definedName>
-    <definedName name="ASTEK_DF">#N/A</definedName>
-    <definedName name="ASTEK_EN">#N/A</definedName>
-    <definedName name="ASTEK_MA">#N/A</definedName>
-    <definedName name="Basic_Balikpapan" localSheetId="0">#REF!</definedName>
-    <definedName name="Basic_Balikpapan">#REF!</definedName>
-    <definedName name="Basic_Banjarmasin" localSheetId="0">#REF!</definedName>
-    <definedName name="Basic_Banjarmasin">#REF!</definedName>
-    <definedName name="Basic_Palangkaraya" localSheetId="0">#REF!</definedName>
-    <definedName name="Basic_Palangkaraya">#REF!</definedName>
-    <definedName name="Basic_Pontianak">#REF!</definedName>
-    <definedName name="Basic_samarinda">#REF!</definedName>
-    <definedName name="Basic_Sampit">#REF!</definedName>
-    <definedName name="DATA">#REF!</definedName>
-    <definedName name="DATA1">#REF!</definedName>
-    <definedName name="Database">#REF!</definedName>
-    <definedName name="DATABASPG">#REF!</definedName>
-    <definedName name="DOAB">#REF!</definedName>
-    <definedName name="Employee_Frezee">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_3_1">NA()</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_3_2">NA()</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_3_3">NA()</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_9" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area_9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_3" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_3_1">NA()</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_3_2">NA()</definedName>
-    <definedName name="Excel_BuiltIn_Print_Titles_3_3">NA()</definedName>
-    <definedName name="Frezee_Employee" localSheetId="0">#REF!</definedName>
-    <definedName name="Frezee_Employee">#REF!</definedName>
-    <definedName name="gaji" localSheetId="0">#REF!</definedName>
-    <definedName name="gaji">#REF!</definedName>
-    <definedName name="gaji_pokok" localSheetId="0">#REF!</definedName>
-    <definedName name="gaji_pokok">#REF!</definedName>
-    <definedName name="gaji_pokok_BR">#REF!</definedName>
-    <definedName name="Gaji_Pokok_BR1">#REF!</definedName>
-    <definedName name="JAKARTA">#REF!</definedName>
-    <definedName name="KEC.KERJA">#N/A</definedName>
-    <definedName name="M.M._THP">#N/A</definedName>
-    <definedName name="March" localSheetId="0">#REF!</definedName>
-    <definedName name="March">#REF!</definedName>
-    <definedName name="March_1">"#REF!"</definedName>
-    <definedName name="March_2">"#REF!"</definedName>
-    <definedName name="March_3">"#REF!"</definedName>
-    <definedName name="mei">#REF!</definedName>
-    <definedName name="NAME">#N/A</definedName>
-    <definedName name="NBP" localSheetId="0">#REF!</definedName>
-    <definedName name="NBP">#REF!</definedName>
-    <definedName name="NBPC" localSheetId="0">#REF!</definedName>
-    <definedName name="NBPC">#REF!</definedName>
-    <definedName name="NO">#N/A</definedName>
-    <definedName name="NO_INDUK">#N/A</definedName>
-    <definedName name="NO_KPA">#N/A</definedName>
-    <definedName name="npic" localSheetId="0">#REF!</definedName>
-    <definedName name="npic">#REF!</definedName>
-    <definedName name="posisi" localSheetId="0">#REF!</definedName>
-    <definedName name="posisi">#REF!</definedName>
-    <definedName name="Print_Area_MI">#N/A</definedName>
-    <definedName name="Print_Titles_MI">#N/A</definedName>
-    <definedName name="Quaker">NA()</definedName>
-    <definedName name="Quaker_1">NA()</definedName>
-    <definedName name="Quaker_2">NA()</definedName>
-    <definedName name="Quaker_3">NA()</definedName>
-    <definedName name="REMARKS">#N/A</definedName>
-    <definedName name="rlembur" localSheetId="0">#REF!</definedName>
-    <definedName name="rlembur">#REF!</definedName>
-    <definedName name="SALARY" localSheetId="0">#REF!</definedName>
-    <definedName name="SALARY">#REF!</definedName>
-    <definedName name="Table_Area" localSheetId="0">#REF!</definedName>
-    <definedName name="Table_Area">#REF!</definedName>
-    <definedName name="Tagihan_BPJS_Kesehatan">#REF!</definedName>
-    <definedName name="Tbl_Title">#REF!</definedName>
-    <definedName name="tdk">#REF!</definedName>
-    <definedName name="TES">#REF!</definedName>
-    <definedName name="THT_B.C">#N/A</definedName>
-    <definedName name="THT_M.C.">#N/A</definedName>
-    <definedName name="TOTAL">#N/A</definedName>
-    <definedName name="TUTI" localSheetId="0">#REF!</definedName>
-    <definedName name="TUTI">#REF!</definedName>
-    <definedName name="uang_harian" localSheetId="0">#REF!</definedName>
-    <definedName name="uang_harian">#REF!</definedName>
-    <definedName name="Upliner_BD_KUDO" localSheetId="0">#REF!</definedName>
-    <definedName name="Upliner_BD_KUDO">#REF!</definedName>
-    <definedName name="VAJA">NA()</definedName>
-    <definedName name="VAJA_1">NA()</definedName>
-    <definedName name="VAJA_2">NA()</definedName>
-    <definedName name="VAJA_3">NA()</definedName>
-    <definedName name="yl" localSheetId="0">#REF!</definedName>
-    <definedName name="yl">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TigerSnus!$A$7:$AS$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>

--- a/src/main/resources/templates/excel/TemplateHCI.xlsx
+++ b/src/main/resources/templates/excel/TemplateHCI.xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TigerSnus" sheetId="1" r:id="rId1"/>
+    <sheet name="INVOICE" sheetId="2" r:id="rId1"/>
+    <sheet name="Home Credit Indonesia" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TigerSnus!$A$7:$AS$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Home Credit Indonesia'!$A$7:$AS$125</definedName>
+    <definedName name="___xlnm.Database">"#REF!"</definedName>
+    <definedName name="___xlnm.Database_1">"#REF!"</definedName>
+    <definedName name="___xlnm.Database_2">"#REF!"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +34,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+  <si>
+    <t>Rekap Invoice PT Home Credit Indonesia</t>
+  </si>
+  <si>
+    <t>Periode April 2025</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Total Invoice</t>
+  </si>
+  <si>
+    <t>Management fee (4%)</t>
+  </si>
+  <si>
+    <t>Grand Total Invoice</t>
+  </si>
+  <si>
+    <t>Biaya Tenaga Kerja PT Home Credit Indonesia Periode April 2025</t>
+  </si>
+  <si>
+    <t>TOTAL TAGIHAN</t>
+  </si>
+  <si>
+    <t>Jakarta, 22 April 2025</t>
+  </si>
+  <si>
+    <t>Dibuat Oleh,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diperiksa Oleh, </t>
+  </si>
+  <si>
+    <t>Disetujui Oleh,</t>
+  </si>
+  <si>
+    <t>HR Compensation &amp; Benefit</t>
+  </si>
+  <si>
+    <t>Manager Business Development</t>
+  </si>
+  <si>
+    <t>Direktur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diverifikasi Oleh, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diketahui Oleh, </t>
+  </si>
+  <si>
+    <t>Manager Finance &amp; Accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direktur </t>
+  </si>
   <si>
     <t>PT. DANAMAS INSAN KREASI ANDALAN</t>
   </si>
@@ -101,9 +165,6 @@
     <t>Premi Asuransi</t>
   </si>
   <si>
-    <t>Total Invoice</t>
-  </si>
-  <si>
     <t>Manajemen Fee</t>
   </si>
   <si>
@@ -117,9 +178,6 @@
   </si>
   <si>
     <t>Total THP</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>NIK</t>
@@ -174,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="11">
+  <numFmts count="15">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -186,8 +244,12 @@
     <numFmt numFmtId="184" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="185" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="186" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="187" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@"/>
+    <numFmt numFmtId="188" formatCode="#,##0.00;[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="189" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
+    <numFmt numFmtId="190" formatCode="&quot; &quot;#,##0&quot; &quot;;&quot; (&quot;#,##0&quot;)&quot;;&quot; - &quot;;&quot; &quot;@&quot; &quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +268,14 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,6 +300,48 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -383,7 +495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +524,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -595,7 +713,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -686,6 +804,21 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -802,159 +935,159 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="62" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -971,28 +1104,31 @@
     <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="62" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="62" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="0" xfId="62" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="2" borderId="0" xfId="67" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="2" borderId="0" xfId="67" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="2" borderId="0" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="4" fillId="2" borderId="0" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="67" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1001,22 +1137,22 @@
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="67" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="67" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="67" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="2" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="2" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="3" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="3" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="62" applyFont="1" applyAlignment="1">
@@ -1038,88 +1174,120 @@
     <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="53" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="1" xfId="67" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="67" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="6" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="6" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="3" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="3" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="2" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="3" borderId="2" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="7" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="7" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="3" borderId="3" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="3" borderId="3" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="3" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="3" borderId="3" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="6" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="6" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="7" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="7" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="5" borderId="1" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="5" borderId="1" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="6" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="6" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="7" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="7" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="3" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="3" xfId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="2" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="3" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="3" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="186" fontId="3" fillId="3" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="186" fontId="4" fillId="3" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="54" applyFont="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="188" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="189" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="190" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="189" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,6 +1381,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2149475" cy="935567"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41275" y="41910"/>
+          <a:ext cx="2149475" cy="935990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1473,10 +1678,360 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.7238095238095" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="7.54285714285714" style="62" customWidth="1"/>
+    <col min="2" max="2" width="71.9047619047619" style="62" customWidth="1"/>
+    <col min="3" max="3" width="34.0476190476191" style="62" customWidth="1"/>
+    <col min="4" max="4" width="29.5238095238095" style="62" customWidth="1"/>
+    <col min="5" max="5" width="29.8190476190476" style="62" customWidth="1"/>
+    <col min="6" max="6" width="36.5428571428571" style="62" customWidth="1"/>
+    <col min="7" max="27" width="8.26666666666667" style="62" customWidth="1"/>
+    <col min="28" max="16384" width="13.7238095238095" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="62" customFormat="1" spans="1:6">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+    </row>
+    <row r="2" s="62" customFormat="1" spans="1:6">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+    </row>
+    <row r="3" s="62" customFormat="1" spans="1:6">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+    </row>
+    <row r="4" s="62" customFormat="1" spans="1:6">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+    </row>
+    <row r="5" s="62" customFormat="1" ht="23.5" customHeight="1" spans="1:6">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+    </row>
+    <row r="6" s="62" customFormat="1" spans="1:6">
+      <c r="A6" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+    </row>
+    <row r="7" s="62" customFormat="1" spans="1:6">
+      <c r="A7" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" s="62" customFormat="1" spans="1:6">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+    </row>
+    <row r="9" s="62" customFormat="1" spans="1:5">
+      <c r="A9" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" s="63" customFormat="1" ht="40" customHeight="1" spans="1:5">
+      <c r="A10" s="69">
+        <v>1</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+    </row>
+    <row r="11" s="62" customFormat="1" spans="1:5">
+      <c r="A11" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+    </row>
+    <row r="12" s="62" customFormat="1" spans="1:6">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="76"/>
+    </row>
+    <row r="13" s="62" customFormat="1" spans="1:6">
+      <c r="A13" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="65"/>
+    </row>
+    <row r="14" s="62" customFormat="1" spans="1:6">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="65"/>
+    </row>
+    <row r="15" s="62" customFormat="1" spans="1:6">
+      <c r="A15" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="79"/>
+      <c r="C15" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" s="62" customFormat="1" spans="1:6">
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+    </row>
+    <row r="17" s="62" customFormat="1" spans="1:6">
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+    </row>
+    <row r="18" s="62" customFormat="1" spans="1:6">
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+    </row>
+    <row r="19" s="62" customFormat="1" spans="1:6">
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+    </row>
+    <row r="20" s="62" customFormat="1" spans="1:6">
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+    </row>
+    <row r="21" s="62" customFormat="1" spans="1:6">
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+    </row>
+    <row r="22" s="62" customFormat="1" spans="1:6">
+      <c r="A22" s="80"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="81"/>
+    </row>
+    <row r="23" s="62" customFormat="1" spans="1:6">
+      <c r="A23" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="79"/>
+      <c r="C23" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" s="62" customFormat="1" spans="1:6">
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="77"/>
+    </row>
+    <row r="25" s="62" customFormat="1" spans="1:6">
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="77"/>
+    </row>
+    <row r="26" s="62" customFormat="1" spans="1:6">
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="77"/>
+    </row>
+    <row r="27" s="62" customFormat="1" spans="1:6">
+      <c r="A27" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="79"/>
+      <c r="C27" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+    </row>
+    <row r="28" s="62" customFormat="1" spans="1:6">
+      <c r="A28" s="64"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+    </row>
+    <row r="29" s="62" customFormat="1" spans="1:6">
+      <c r="A29" s="64"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+    </row>
+    <row r="30" s="62" customFormat="1" spans="1:6">
+      <c r="A30" s="64"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+    </row>
+    <row r="31" s="62" customFormat="1" spans="1:6">
+      <c r="A31" s="64"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+    </row>
+    <row r="32" s="62" customFormat="1" spans="1:6">
+      <c r="A32" s="64"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+    </row>
+    <row r="33" s="62" customFormat="1" spans="1:6">
+      <c r="A33" s="64"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+    </row>
+    <row r="34" s="62" customFormat="1" spans="1:6">
+      <c r="A34" s="81"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="81"/>
+    </row>
+    <row r="35" s="62" customFormat="1" spans="1:6">
+      <c r="A35" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="79"/>
+      <c r="C35" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AP126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3359,7 +3914,7 @@
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:42">
       <c r="A1" s="10"/>
       <c r="B1" s="11" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="5"/>
@@ -3369,1224 +3924,1224 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
       <c r="M1" s="12"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
       <c r="Q1" s="12"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
       <c r="AD1" s="12"/>
       <c r="AE1" s="12"/>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
-      <c r="AH1" s="29"/>
+      <c r="AH1" s="30"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="12"/>
       <c r="AK1" s="12"/>
       <c r="AL1" s="12"/>
       <c r="AM1" s="12"/>
       <c r="AN1" s="12"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15" customHeight="1" spans="1:42">
-      <c r="A2" s="10"/>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="12"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="12"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
       <c r="AD2" s="12"/>
       <c r="AE2" s="12"/>
       <c r="AF2" s="12"/>
       <c r="AG2" s="12"/>
-      <c r="AH2" s="29"/>
+      <c r="AH2" s="30"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
       <c r="AM2" s="12"/>
       <c r="AN2" s="12"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:41">
-      <c r="A3" s="10"/>
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
-      <c r="AG3" s="29"/>
+      <c r="AG3" s="30"/>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
       <c r="AM3" s="12"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:42">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
-      <c r="AH4" s="50"/>
+      <c r="AH4" s="51"/>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
       <c r="AK4" s="12"/>
-      <c r="AL4" s="51" t="s">
+      <c r="AL4" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="25.5" customHeight="1" spans="1:42">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB5" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC5" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD5" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH5" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="25.5" customHeight="1" spans="1:42">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="U5" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="W5" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="X5" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA5" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB5" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC5" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD5" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE5" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF5" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG5" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH5" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI5" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ5" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK5" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL5" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM5" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN5" s="52" t="s">
-        <v>28</v>
+      <c r="AJ5" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL5" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM5" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN5" s="53" t="s">
+        <v>47</v>
       </c>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="15" customHeight="1" spans="1:42">
-      <c r="A6" s="19"/>
-      <c r="B6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="41"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="53">
+      <c r="A6" s="20"/>
+      <c r="B6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="42"/>
+      <c r="P6" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="42"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="54">
         <v>0.04</v>
       </c>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="54"/>
-      <c r="AN6" s="54"/>
-      <c r="AO6" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP6" s="39" t="s">
-        <v>44</v>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP6" s="40" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="9.5" customHeight="1" spans="1:42">
-      <c r="A7" s="19"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
     </row>
     <row r="8" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="34" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
     </row>
     <row r="35" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="38" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
     </row>
     <row r="39" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
     </row>
     <row r="40" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
     </row>
     <row r="42" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
     </row>
     <row r="43" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
     </row>
     <row r="44" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
     </row>
     <row r="47" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
     </row>
     <row r="49" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
     </row>
     <row r="50" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
     </row>
     <row r="51" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
     </row>
     <row r="52" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
     </row>
     <row r="53" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A53" s="26"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
     </row>
     <row r="54" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A54" s="26"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A55" s="26"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
     </row>
     <row r="56" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
     </row>
     <row r="57" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A57" s="26"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
     </row>
     <row r="58" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A58" s="26"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
     </row>
     <row r="59" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A59" s="26"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
     </row>
     <row r="60" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A60" s="26"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
     </row>
     <row r="61" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A61" s="26"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
     </row>
     <row r="62" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A62" s="26"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
     </row>
     <row r="63" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
     </row>
     <row r="64" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A64" s="26"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
     </row>
     <row r="65" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A65" s="26"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
     </row>
     <row r="66" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A66" s="26"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
     </row>
     <row r="67" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A67" s="26"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
     </row>
     <row r="68" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A68" s="26"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A69" s="26"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
     </row>
     <row r="70" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A70" s="26"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
     </row>
     <row r="71" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A71" s="26"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
     </row>
     <row r="72" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A72" s="26"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
     </row>
     <row r="73" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A73" s="26"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
     </row>
     <row r="74" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A74" s="26"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
     </row>
     <row r="75" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A75" s="26"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
     </row>
     <row r="76" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A76" s="26"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
     </row>
     <row r="77" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A77" s="26"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
     </row>
     <row r="78" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A78" s="26"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
     </row>
     <row r="79" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A79" s="26"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
     </row>
     <row r="80" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A80" s="26"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
     </row>
     <row r="81" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A81" s="26"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
     </row>
     <row r="82" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A82" s="26"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
     </row>
     <row r="83" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A83" s="26"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
     </row>
     <row r="84" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A84" s="26"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
     </row>
     <row r="85" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A85" s="26"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
     </row>
     <row r="86" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A86" s="26"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
     </row>
     <row r="87" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A87" s="26"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
     </row>
     <row r="88" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A88" s="26"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
     </row>
     <row r="89" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A89" s="26"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
     </row>
     <row r="90" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A90" s="26"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
     </row>
     <row r="91" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A91" s="26"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
     </row>
     <row r="92" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A92" s="26"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
     </row>
     <row r="93" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A93" s="26"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
     </row>
     <row r="94" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A94" s="26"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
     </row>
     <row r="95" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A95" s="26"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
     </row>
     <row r="96" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A96" s="26"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
     </row>
     <row r="97" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A97" s="26"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
     </row>
     <row r="98" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A98" s="26"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
     </row>
     <row r="99" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A99" s="26"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
+      <c r="A99" s="27"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
     </row>
     <row r="100" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A100" s="26"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
     </row>
     <row r="101" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A101" s="26"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
     </row>
     <row r="102" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A102" s="26"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
     </row>
     <row r="103" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A103" s="26"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
     </row>
     <row r="104" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A104" s="26"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
     </row>
     <row r="105" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A105" s="26"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
+      <c r="A105" s="27"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
     </row>
     <row r="106" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A106" s="26"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
+      <c r="A106" s="27"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
     </row>
     <row r="107" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A107" s="26"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
     </row>
     <row r="108" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A108" s="26"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
+      <c r="A108" s="27"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
     </row>
     <row r="109" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A109" s="26"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
+      <c r="A109" s="27"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
     </row>
     <row r="110" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A110" s="26"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
+      <c r="A110" s="27"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
     </row>
     <row r="111" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A111" s="26"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
+      <c r="A111" s="27"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
     </row>
     <row r="112" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A112" s="26"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
+      <c r="A112" s="27"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
     </row>
     <row r="113" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A113" s="26"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
+      <c r="A113" s="27"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
     </row>
     <row r="114" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A114" s="26"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
+      <c r="A114" s="27"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
     </row>
     <row r="115" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A115" s="26"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
+      <c r="A115" s="27"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
     </row>
     <row r="116" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A116" s="26"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
+      <c r="A116" s="27"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
     </row>
     <row r="117" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A117" s="26"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
+      <c r="A117" s="27"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
     </row>
     <row r="118" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A118" s="26"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
+      <c r="A118" s="27"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
     </row>
     <row r="119" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A119" s="26"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
+      <c r="A119" s="27"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
     </row>
     <row r="120" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A120" s="26"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
+      <c r="A120" s="27"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
     </row>
     <row r="121" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A121" s="26"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
+      <c r="A121" s="27"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
     </row>
     <row r="122" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A122" s="26"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
+      <c r="A122" s="27"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
     </row>
     <row r="123" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A123" s="26"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
+      <c r="A123" s="27"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
     </row>
     <row r="124" s="3" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A124" s="26"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
+      <c r="A124" s="27"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
     </row>
     <row r="125" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:41">
-      <c r="A125" s="56"/>
-      <c r="B125" s="57"/>
-      <c r="C125" s="57"/>
-      <c r="D125" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E125" s="58"/>
-      <c r="F125" s="58"/>
-      <c r="G125" s="58"/>
-      <c r="H125" s="58"/>
-      <c r="I125" s="58"/>
-      <c r="J125" s="57"/>
-      <c r="K125" s="57"/>
-      <c r="L125" s="58"/>
-      <c r="M125" s="58" t="e">
+      <c r="A125" s="57"/>
+      <c r="B125" s="58"/>
+      <c r="C125" s="58"/>
+      <c r="D125" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E125" s="59"/>
+      <c r="F125" s="59"/>
+      <c r="G125" s="59"/>
+      <c r="H125" s="59"/>
+      <c r="I125" s="59"/>
+      <c r="J125" s="58"/>
+      <c r="K125" s="58"/>
+      <c r="L125" s="59"/>
+      <c r="M125" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N125" s="58" t="e">
+      <c r="N125" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="O125" s="58"/>
-      <c r="P125" s="58" t="e">
+      <c r="O125" s="59"/>
+      <c r="P125" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Q125" s="58" t="e">
+      <c r="Q125" s="59" t="e">
         <f>ROUND(SUM(#REF!),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="R125" s="58" t="e">
+      <c r="R125" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S125" s="58" t="e">
+      <c r="S125" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="T125" s="58" t="e">
+      <c r="T125" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U125" s="58" t="e">
+      <c r="U125" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="V125" s="58" t="e">
+      <c r="V125" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="W125" s="58" t="e">
+      <c r="W125" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="X125" s="58" t="e">
+      <c r="X125" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y125" s="58" t="e">
+      <c r="Y125" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Z125" s="58" t="e">
+      <c r="Z125" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AA125" s="58" t="e">
+      <c r="AA125" s="59" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="AB125" s="58" t="e">
+      <c r="AB125" s="59" t="e">
         <f>ROUND(SUM(#REF!),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="AC125" s="58" t="e">
+      <c r="AC125" s="59" t="e">
         <f>ROUND(SUM(#REF!),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="AD125" s="58" t="e">
+      <c r="AD125" s="59" t="e">
         <f>ROUND(SUM(#REF!),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="AE125" s="58" t="e">
+      <c r="AE125" s="59" t="e">
         <f>ROUND(SUM(#REF!),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="AF125" s="58" t="e">
+      <c r="AF125" s="59" t="e">
         <f>ROUND(SUM(#REF!),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="AG125" s="58" t="e">
+      <c r="AG125" s="59" t="e">
         <f>ROUND(SUM(#REF!),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="AH125" s="58" t="e">
+      <c r="AH125" s="59" t="e">
         <f>ROUND(SUM(#REF!),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="AI125" s="58" t="e">
+      <c r="AI125" s="59" t="e">
         <f>ROUND(SUM(#REF!),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="AJ125" s="58" t="e">
+      <c r="AJ125" s="59" t="e">
         <f>ROUND(SUM(#REF!),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="AK125" s="58" t="e">
+      <c r="AK125" s="59" t="e">
         <f>ROUND(SUM(#REF!),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="AL125" s="58" t="e">
+      <c r="AL125" s="59" t="e">
         <f>ROUND(SUM(#REF!),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="AM125" s="58" t="e">
+      <c r="AM125" s="59" t="e">
         <f>ROUND(SUM(#REF!),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="AN125" s="58"/>
-      <c r="AO125" s="60"/>
+      <c r="AN125" s="59"/>
+      <c r="AO125" s="61"/>
     </row>
     <row r="126" spans="34:35">
-      <c r="AH126" s="59"/>
-      <c r="AI126" s="59"/>
+      <c r="AH126" s="60"/>
+      <c r="AI126" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/src/main/resources/templates/excel/TemplateHCI.xlsx
+++ b/src/main/resources/templates/excel/TemplateHCI.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -1383,6 +1383,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -1681,7 +1688,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7238095238095" defaultRowHeight="15" outlineLevelCol="5"/>
